--- a/tests/data/finmodel/finmodel.xlsx
+++ b/tests/data/finmodel/finmodel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Наименование проекта:</t>
   </si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>Максимально лет</t>
+  </si>
+  <si>
+    <t>rewerew</t>
+  </si>
+  <si>
+    <t>wewerwer</t>
+  </si>
+  <si>
+    <t>werew</t>
+  </si>
+  <si>
+    <t>werw</t>
+  </si>
+  <si>
+    <t>wer</t>
   </si>
 </sst>
 </file>
@@ -791,7 +806,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1066,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>29</v>
@@ -1104,47 +1119,47 @@
         <v>Себестоимость от цены</v>
       </c>
       <c r="H15" s="16" t="str">
-        <f>"Рост "&amp;P1&amp;" %"</f>
+        <f t="shared" ref="H15:R15" si="0">"Рост "&amp;P1&amp;" %"</f>
         <v>Рост 1 год %</v>
       </c>
       <c r="I15" s="16" t="str">
-        <f>"Рост "&amp;Q1&amp;" %"</f>
+        <f t="shared" si="0"/>
         <v>Рост 2 года %</v>
       </c>
       <c r="J15" s="16" t="str">
-        <f>"Рост "&amp;R1&amp;" %"</f>
+        <f t="shared" si="0"/>
         <v>Рост 3 года %</v>
       </c>
       <c r="K15" s="16" t="str">
-        <f>"Рост "&amp;S1&amp;" %"</f>
+        <f t="shared" si="0"/>
         <v>Рост 4 года %</v>
       </c>
       <c r="L15" s="16" t="str">
-        <f>"Рост "&amp;T1&amp;" %"</f>
+        <f t="shared" si="0"/>
         <v>Рост 5 лет %</v>
       </c>
       <c r="M15" s="16" t="str">
-        <f>"Рост "&amp;U1&amp;" %"</f>
+        <f t="shared" si="0"/>
         <v>Рост 6 лет %</v>
       </c>
       <c r="N15" s="16" t="str">
-        <f>"Рост "&amp;V1&amp;" %"</f>
+        <f t="shared" si="0"/>
         <v>Рост 7 лет %</v>
       </c>
       <c r="O15" s="16" t="str">
-        <f>"Рост "&amp;W1&amp;" %"</f>
+        <f t="shared" si="0"/>
         <v>Рост 8 лет %</v>
       </c>
       <c r="P15" s="16" t="str">
-        <f>"Рост "&amp;X1&amp;" %"</f>
+        <f t="shared" si="0"/>
         <v>Рост 9 лет %</v>
       </c>
       <c r="Q15" s="16" t="str">
-        <f>"Рост "&amp;Y1&amp;" %"</f>
+        <f t="shared" si="0"/>
         <v>Рост 10 лет %</v>
       </c>
       <c r="R15" s="16" t="str">
-        <f>"Рост "&amp;Z1&amp;" %"</f>
+        <f t="shared" si="0"/>
         <v>Рост 11 лет %</v>
       </c>
       <c r="S15" s="16" t="str">
@@ -1152,35 +1167,35 @@
         <v>Рост цены в 1 год %</v>
       </c>
       <c r="T15" s="16" t="str">
-        <f t="shared" ref="T15:AA15" si="0">"Рост цены в "&amp;Q1&amp;" %"</f>
+        <f t="shared" ref="T15:AA15" si="1">"Рост цены в "&amp;Q1&amp;" %"</f>
         <v>Рост цены в 2 года %</v>
       </c>
       <c r="U15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Рост цены в 3 года %</v>
       </c>
       <c r="V15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Рост цены в 4 года %</v>
       </c>
       <c r="W15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Рост цены в 5 лет %</v>
       </c>
       <c r="X15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Рост цены в 6 лет %</v>
       </c>
       <c r="Y15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Рост цены в 7 лет %</v>
       </c>
       <c r="Z15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Рост цены в 8 лет %</v>
       </c>
       <c r="AA15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Рост цены в 9 лет %</v>
       </c>
       <c r="AB15" s="16" t="str">
@@ -1188,13 +1203,15 @@
         <v>Рост цены в 10 лет %</v>
       </c>
       <c r="AC15" s="16" t="str">
-        <f t="shared" ref="AC15" si="1">"Рост цены в "&amp;Z1&amp;" %"</f>
+        <f t="shared" ref="AC15" si="2">"Рост цены в "&amp;Z1&amp;" %"</f>
         <v>Рост цены в 11 лет %</v>
       </c>
       <c r="AD15" s="16"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" s="15" t="s">
         <v>32</v>
       </c>
@@ -1227,7 +1244,9 @@
       <c r="AD16" s="15"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+      <c r="B17" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="C17" s="15" t="s">
         <v>32</v>
       </c>
@@ -1260,7 +1279,9 @@
       <c r="AD17" s="15"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
+      <c r="B18" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" s="15" t="s">
         <v>32</v>
       </c>
@@ -1293,7 +1314,9 @@
       <c r="AD18" s="15"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="C19" s="15" t="s">
         <v>32</v>
       </c>
@@ -1326,7 +1349,9 @@
       <c r="AD19" s="15"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" s="15" t="s">
         <v>32</v>
       </c>
